--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.28.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.28.xlsx
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -1508,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1620,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1774,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1858,7 +1858,7 @@
         <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -2026,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2236,7 +2236,7 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
